--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Miriam Soler.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Miriam Soler.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -9355,28 +9355,13 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="100" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="105" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="105" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="102" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="105"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9386,6 +9371,13 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Miriam Soler.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Miriam Soler.xlsx
@@ -5703,7 +5703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="491">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6839,6 +6839,9 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7368,36 +7371,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="6.0" customWidth="true"/>
-    <col min="27" max="27" width="21.77734375" customWidth="true"/>
-    <col min="28" max="28" width="21.77734375" customWidth="true"/>
-    <col min="29" max="29" width="21.77734375" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" width="21.77734375" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="21.77734375" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="21.77734375" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9391,23 +9394,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -9987,23 +9990,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10590,23 +10593,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11185,23 +11188,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11787,23 +11790,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11982,8 +11985,12 @@
       <c r="B18" s="127" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="E18" s="128"/>
+      <c r="C18" s="490" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="490" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="125" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -12411,23 +12418,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13020,23 +13027,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13641,23 +13648,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14253,23 +14260,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14873,23 +14880,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15471,23 +15478,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16073,23 +16080,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Miriam Soler.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Miriam Soler.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="472">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1434,6 +1434,12 @@
   </si>
   <si>
     <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>Vacaciones anteriores</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -5703,7 +5709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="491">
+  <cellXfs count="515">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6839,6 +6845,78 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -7371,36 +7449,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="6.0" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" width="21.77734375" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="21.77734375" collapsed="false"/>
-    <col min="29" max="29" customWidth="true" width="21.77734375" collapsed="false"/>
-    <col min="30" max="30" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9394,23 +9472,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -9990,23 +10068,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10593,23 +10671,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11188,23 +11266,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11790,23 +11868,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11985,37 +12063,42 @@
       <c r="B18" s="127" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="490" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E18" s="490" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="G18" s="125" t="n">
-        <f>((E18-C18)*24)-1</f>
-        <v>0.0</v>
+      <c r="C18" s="490" t="s">
+        <v>470</v>
+      </c>
+      <c r="E18" s="490" t="s">
+        <v>470</v>
+      </c>
+      <c r="G18" s="125" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
       <c r="B19" s="127" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="G19" s="125" t="n">
-        <f>((E19-C19)*24)-1</f>
-        <v>0.0</v>
+      <c r="C19" s="128" t="s">
+        <v>470</v>
+      </c>
+      <c r="E19" s="128" t="s">
+        <v>470</v>
+      </c>
+      <c r="G19" s="125" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
       <c r="B20" s="127" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="G20" s="125" t="n">
-        <f>((E20-C20)*24)-1</f>
-        <v>0.0</v>
+      <c r="C20" s="128" t="s">
+        <v>470</v>
+      </c>
+      <c r="E20" s="128" t="s">
+        <v>470</v>
+      </c>
+      <c r="G20" s="125" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
@@ -12032,11 +12115,14 @@
       <c r="B22" s="127" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="G22" s="125" t="n">
-        <f>((E22-C22)*24)-1</f>
-        <v>0.0</v>
+      <c r="C22" s="128" t="s">
+        <v>470</v>
+      </c>
+      <c r="E22" s="128" t="s">
+        <v>470</v>
+      </c>
+      <c r="G22" s="125" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
@@ -12063,8 +12149,12 @@
       <c r="B25" s="127" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="E25" s="128"/>
+      <c r="C25" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E25" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G25" s="125" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12074,8 +12164,12 @@
       <c r="B26" s="127" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="E26" s="128"/>
+      <c r="C26" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E26" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G26" s="125" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12085,8 +12179,12 @@
       <c r="B27" s="127" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="E27" s="128"/>
+      <c r="C27" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E27" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G27" s="125" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -12096,8 +12194,12 @@
       <c r="B28" s="127" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="E28" s="128"/>
+      <c r="C28" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E28" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G28" s="125" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -12107,8 +12209,12 @@
       <c r="B29" s="127" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="E29" s="128"/>
+      <c r="C29" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E29" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G29" s="125" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12138,8 +12244,12 @@
       <c r="B32" s="127" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="E32" s="128"/>
+      <c r="C32" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E32" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G32" s="125" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12149,8 +12259,12 @@
       <c r="B33" s="127" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="128"/>
-      <c r="E33" s="128"/>
+      <c r="C33" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E33" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G33" s="125" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12160,8 +12274,12 @@
       <c r="B34" s="127" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="128"/>
-      <c r="E34" s="128"/>
+      <c r="C34" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E34" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G34" s="125" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -12171,8 +12289,12 @@
       <c r="B35" s="127" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="E35" s="128"/>
+      <c r="C35" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E35" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G35" s="125" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -12182,8 +12304,12 @@
       <c r="B36" s="127" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="E36" s="128"/>
+      <c r="C36" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E36" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G36" s="125" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12213,8 +12339,12 @@
       <c r="B39" s="127" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="E39" s="128"/>
+      <c r="C39" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E39" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G39" s="125" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12224,8 +12354,12 @@
       <c r="B40" s="127" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="E40" s="128"/>
+      <c r="C40" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E40" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G40" s="125" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12235,8 +12369,12 @@
       <c r="B41" s="127" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="128"/>
-      <c r="E41" s="128"/>
+      <c r="C41" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E41" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G41" s="125" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -12246,8 +12384,12 @@
       <c r="B42" s="127" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="128"/>
-      <c r="E42" s="128"/>
+      <c r="C42" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E42" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G42" s="125" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -12257,8 +12399,12 @@
       <c r="B43" s="127" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="128"/>
-      <c r="E43" s="128"/>
+      <c r="C43" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E43" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G43" s="125" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -12288,8 +12434,12 @@
       <c r="B46" s="127" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="128"/>
-      <c r="E46" s="128"/>
+      <c r="C46" s="513" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E46" s="513" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G46" s="125" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -12418,23 +12568,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12592,8 +12742,12 @@
       <c r="B16" s="161" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="E16" s="162"/>
+      <c r="C16" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E16" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G16" s="159" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -12603,8 +12757,12 @@
       <c r="B17" s="161" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="E17" s="162"/>
+      <c r="C17" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E17" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G17" s="159" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -12614,8 +12772,12 @@
       <c r="B18" s="161" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="E18" s="162"/>
+      <c r="C18" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E18" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G18" s="159" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -12625,8 +12787,12 @@
       <c r="B19" s="161" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="E19" s="162"/>
+      <c r="C19" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E19" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G19" s="159" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12656,8 +12822,12 @@
       <c r="B22" s="161" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="E22" s="162"/>
+      <c r="C22" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E22" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G22" s="159" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12667,8 +12837,12 @@
       <c r="B23" s="161" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="E23" s="162"/>
+      <c r="C23" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E23" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G23" s="159" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -12678,8 +12852,12 @@
       <c r="B24" s="161" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="E24" s="162"/>
+      <c r="C24" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E24" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G24" s="159" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -12689,8 +12867,12 @@
       <c r="B25" s="161" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="E25" s="162"/>
+      <c r="C25" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E25" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G25" s="159" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12700,8 +12882,12 @@
       <c r="B26" s="161" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="162"/>
-      <c r="E26" s="162"/>
+      <c r="C26" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E26" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G26" s="159" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12731,8 +12917,12 @@
       <c r="B29" s="161" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="162"/>
-      <c r="E29" s="162"/>
+      <c r="C29" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E29" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G29" s="159" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12742,8 +12932,12 @@
       <c r="B30" s="161" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="162"/>
-      <c r="E30" s="162"/>
+      <c r="C30" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E30" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G30" s="159" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -12753,8 +12947,12 @@
       <c r="B31" s="161" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="162"/>
-      <c r="E31" s="162"/>
+      <c r="C31" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E31" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G31" s="159" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -12764,8 +12962,12 @@
       <c r="B32" s="161" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="162"/>
-      <c r="E32" s="162"/>
+      <c r="C32" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E32" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G32" s="159" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12775,8 +12977,12 @@
       <c r="B33" s="161" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="162"/>
-      <c r="E33" s="162"/>
+      <c r="C33" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E33" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G33" s="159" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12806,8 +13012,12 @@
       <c r="B36" s="161" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="162"/>
-      <c r="E36" s="162"/>
+      <c r="C36" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E36" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G36" s="159" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12817,8 +13027,12 @@
       <c r="B37" s="161" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="162"/>
-      <c r="E37" s="162"/>
+      <c r="C37" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E37" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G37" s="159" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -12828,8 +13042,12 @@
       <c r="B38" s="161" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="162"/>
-      <c r="E38" s="162"/>
+      <c r="C38" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E38" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G38" s="159" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -12839,8 +13057,12 @@
       <c r="B39" s="161" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="162"/>
-      <c r="E39" s="162"/>
+      <c r="C39" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E39" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G39" s="159" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12850,8 +13072,12 @@
       <c r="B40" s="161" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="162"/>
-      <c r="E40" s="162"/>
+      <c r="C40" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E40" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G40" s="159" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12881,8 +13107,12 @@
       <c r="B43" s="161" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="162"/>
-      <c r="E43" s="162"/>
+      <c r="C43" s="503" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E43" s="503" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G43" s="159" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13027,23 +13257,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13201,8 +13431,12 @@
       <c r="B16" s="195" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="E16" s="196"/>
+      <c r="C16" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E16" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G16" s="193" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13212,8 +13446,12 @@
       <c r="B17" s="195" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="E17" s="196"/>
+      <c r="C17" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E17" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G17" s="193" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -13223,8 +13461,12 @@
       <c r="B18" s="195" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="196"/>
-      <c r="E18" s="196"/>
+      <c r="C18" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E18" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G18" s="193" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -13234,8 +13476,12 @@
       <c r="B19" s="195" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="196"/>
-      <c r="E19" s="196"/>
+      <c r="C19" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E19" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G19" s="193" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -13265,8 +13511,12 @@
       <c r="B22" s="195" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="196"/>
-      <c r="E22" s="196"/>
+      <c r="C22" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E22" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G22" s="193" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -13276,8 +13526,12 @@
       <c r="B23" s="195" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="196"/>
-      <c r="E23" s="196"/>
+      <c r="C23" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E23" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G23" s="193" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -13287,8 +13541,12 @@
       <c r="B24" s="195" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="196"/>
-      <c r="E24" s="196"/>
+      <c r="C24" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E24" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G24" s="193" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -13298,8 +13556,12 @@
       <c r="B25" s="195" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="196"/>
-      <c r="E25" s="196"/>
+      <c r="C25" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E25" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G25" s="193" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -13309,8 +13571,12 @@
       <c r="B26" s="195" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="196"/>
-      <c r="E26" s="196"/>
+      <c r="C26" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E26" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G26" s="193" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -13340,8 +13606,12 @@
       <c r="B29" s="195" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="196"/>
-      <c r="E29" s="196"/>
+      <c r="C29" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E29" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G29" s="193" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -13351,8 +13621,12 @@
       <c r="B30" s="195" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="196"/>
-      <c r="E30" s="196"/>
+      <c r="C30" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E30" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G30" s="193" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -13362,8 +13636,12 @@
       <c r="B31" s="195" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="196"/>
-      <c r="E31" s="196"/>
+      <c r="C31" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E31" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G31" s="193" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -13373,8 +13651,12 @@
       <c r="B32" s="195" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="196"/>
-      <c r="E32" s="196"/>
+      <c r="C32" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E32" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G32" s="193" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -13384,8 +13666,12 @@
       <c r="B33" s="195" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="196"/>
-      <c r="E33" s="196"/>
+      <c r="C33" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E33" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G33" s="193" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -13415,8 +13701,12 @@
       <c r="B36" s="195" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="196"/>
-      <c r="E36" s="196"/>
+      <c r="C36" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E36" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G36" s="193" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -13426,8 +13716,12 @@
       <c r="B37" s="195" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="196"/>
-      <c r="E37" s="196"/>
+      <c r="C37" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E37" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G37" s="193" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -13437,8 +13731,12 @@
       <c r="B38" s="195" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="196"/>
-      <c r="E38" s="196"/>
+      <c r="C38" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E38" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G38" s="193" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -13448,8 +13746,12 @@
       <c r="B39" s="195" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="196"/>
-      <c r="E39" s="196"/>
+      <c r="C39" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E39" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G39" s="193" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -13459,8 +13761,12 @@
       <c r="B40" s="195" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="196"/>
-      <c r="E40" s="196"/>
+      <c r="C40" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E40" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G40" s="193" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -13490,8 +13796,12 @@
       <c r="B43" s="195" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="196"/>
-      <c r="E43" s="196"/>
+      <c r="C43" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E43" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G43" s="193" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13501,8 +13811,12 @@
       <c r="B44" s="195" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="196"/>
-      <c r="E44" s="196"/>
+      <c r="C44" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E44" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G44" s="193" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -13512,8 +13826,12 @@
       <c r="B45" s="195" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="196"/>
-      <c r="E45" s="196"/>
+      <c r="C45" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E45" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G45" s="193" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -13523,8 +13841,12 @@
       <c r="B46" s="195" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="196"/>
-      <c r="E46" s="196"/>
+      <c r="C46" s="512" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E46" s="512" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G46" s="193" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -13648,23 +13970,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13822,8 +14144,12 @@
       <c r="B16" s="228" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="229"/>
-      <c r="E16" s="229"/>
+      <c r="C16" s="514" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E16" s="514" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G16" s="226" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13853,8 +14179,12 @@
       <c r="B19" s="228" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="229"/>
-      <c r="E19" s="229"/>
+      <c r="C19" s="514" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E19" s="514" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G19" s="226" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -14260,23 +14590,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14880,23 +15210,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15478,23 +15808,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16080,23 +16410,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Miriam Soler.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Miriam Soler.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.30.65.3\data\Fichajes\Palobiofarma, S.L Mataró\"/>
     </mc:Choice>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="118">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>Vacaciones anteriores</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
 </sst>
 </file>
@@ -4650,7 +4653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="493">
+  <cellXfs count="494">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5795,6 +5798,9 @@
     </xf>
     <xf numFmtId="14" fontId="470" fillId="12" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6698,22 +6704,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD46"/>
+  <dimension ref="B1:AC46"/>
   <sheetViews>
     <sheetView topLeftCell="J31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="8" width="6.81640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="2.81640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="16" width="6.81640625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="2.81640625" customWidth="1" collapsed="1"/>
-    <col min="18" max="24" width="6.81640625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6" customWidth="1" collapsed="1"/>
-    <col min="27" max="29" width="21.81640625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="2.81640625" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.81640625" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.81640625" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="21.81640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="25.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -8700,7 +8706,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
@@ -8708,18 +8714,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -9282,7 +9288,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
@@ -9290,18 +9296,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -9872,7 +9878,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
@@ -9880,18 +9886,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -10453,7 +10459,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="M48" sqref="M48"/>
@@ -10461,18 +10467,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -11042,7 +11048,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
@@ -11050,18 +11056,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -11714,6 +11720,7 @@
       <c r="H62" s="397"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -11730,7 +11737,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
@@ -11738,18 +11745,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -12391,6 +12398,7 @@
       <c r="H62" s="407"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -12407,7 +12415,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
@@ -12415,18 +12423,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -13091,6 +13099,7 @@
       <c r="H62" s="413"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13107,7 +13116,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
@@ -13115,18 +13124,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -13714,7 +13723,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
@@ -13722,18 +13731,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -14321,7 +14330,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
@@ -14329,18 +14338,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -14906,7 +14915,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
@@ -14914,18 +14923,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -15182,44 +15191,56 @@
       <c r="B27" s="257">
         <v>12</v>
       </c>
-      <c r="C27" s="258"/>
-      <c r="E27" s="258"/>
-      <c r="G27" s="255">
-        <f>((E27-C27)*24)-1</f>
-        <v>-1</v>
+      <c r="C27" s="258" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="258" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="255" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="257">
         <v>13</v>
       </c>
-      <c r="C28" s="258"/>
-      <c r="E28" s="258"/>
-      <c r="G28" s="255">
-        <f>((E28-C28)*24)-1</f>
-        <v>-1</v>
+      <c r="C28" s="258" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="258" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="255" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="257">
         <v>14</v>
       </c>
-      <c r="C29" s="258"/>
-      <c r="E29" s="258"/>
-      <c r="G29" s="255">
-        <f>((E29-C29)*24)-1</f>
-        <v>-1</v>
+      <c r="C29" s="258" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="258" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="255" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="257">
         <v>15</v>
       </c>
-      <c r="C30" s="258"/>
-      <c r="E30" s="258"/>
-      <c r="G30" s="255">
-        <f>((E30-C30)*24)-1</f>
-        <v>-1</v>
+      <c r="C30" s="258" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="258" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="255" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -15495,7 +15516,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
@@ -15503,18 +15524,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.08984375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.36328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.36328125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Miriam Soler.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Miriam Soler.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="2" r:id="rId5"/>
@@ -17,7 +20,6 @@
     <sheet state="visible" name="11" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="12" sheetId="13" r:id="rId16"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="118">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -379,6 +381,9 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1324,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1605,6 +1610,9 @@
     </xf>
     <xf borderId="31" fillId="12" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2213,20 +2221,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.86"/>
-    <col customWidth="1" min="2" max="8" width="6.86"/>
-    <col customWidth="1" min="9" max="9" width="2.86"/>
-    <col customWidth="1" min="10" max="16" width="6.86"/>
-    <col customWidth="1" min="17" max="17" width="2.86"/>
-    <col customWidth="1" min="18" max="24" width="6.86"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="6.0"/>
-    <col customWidth="1" min="27" max="29" width="21.86"/>
+    <col min="1" max="1" customWidth="true" width="2.86" collapsed="false"/>
+    <col min="2" max="8" customWidth="true" width="6.86" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="2.86" collapsed="false"/>
+    <col min="10" max="16" customWidth="true" width="6.86" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="2.86" collapsed="false"/>
+    <col min="18" max="24" customWidth="true" width="6.86" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="false"/>
+    <col min="27" max="29" customWidth="true" width="21.86" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -5168,24 +5177,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -6665,24 +6675,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -8169,24 +8180,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -9665,24 +9677,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -11168,24 +11181,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -12769,24 +12783,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -14359,24 +14374,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -15973,24 +15989,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -17494,24 +17511,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -19015,24 +19033,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -20514,24 +20533,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -22029,24 +22049,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.57"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.57"/>
-    <col customWidth="1" min="8" max="8" width="4.57"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.43"/>
-    <col customWidth="1" min="11" max="11" width="13.43"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.57" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.57" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="4.57" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="5.43" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.43" collapsed="false"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="false"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -22190,55 +22211,70 @@
       <c r="B16" s="122">
         <v>1.0</v>
       </c>
-      <c r="C16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="G16" s="106">
-        <f t="shared" ref="G16:G20" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
-        <v>0</v>
+      <c r="C16" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="122">
         <v>2.0</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="G17" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C17" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="122">
         <v>3.0</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="G18" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C18" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="122">
         <v>4.0</v>
       </c>
-      <c r="C19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="G19" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C19" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="122">
         <v>5.0</v>
       </c>
-      <c r="C20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="G20" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C20" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -22265,55 +22301,70 @@
       <c r="B23" s="122">
         <v>8.0</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="G23" s="106">
-        <f t="shared" ref="G23:G27" si="2">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
-        <v>0</v>
+      <c r="C23" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="B24" s="122">
         <v>9.0</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="G24" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C24" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="B25" s="122">
         <v>10.0</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="G25" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C25" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="B26" s="122">
         <v>11.0</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="G26" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C26" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="B27" s="122">
         <v>12.0</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="G27" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C27" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
@@ -22350,44 +22401,56 @@
       <c r="B31" s="122">
         <v>16.0</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="G31" s="106">
-        <f t="shared" ref="G31:G34" si="3">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
-        <v>0</v>
+      <c r="C31" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="122">
         <v>17.0</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="G32" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C32" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="B33" s="122">
         <v>18.0</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="G33" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C33" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="B34" s="122">
         <v>19.0</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="G34" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C34" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Miriam Soler.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Miriam Soler.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="117">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1429,7 +1429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1714,6 +1714,18 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5516,8 +5528,12 @@
       <c r="B16" s="103">
         <v>1</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="E16" s="92"/>
+      <c r="C16" s="128" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E16" s="128" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G16" s="88">
         <f t="shared" ref="G16:G17" si="0">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -5527,8 +5543,12 @@
       <c r="B17" s="103">
         <v>2</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="E17" s="92"/>
+      <c r="C17" s="128" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E17" s="128" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G17" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5558,8 +5578,12 @@
       <c r="B20" s="103">
         <v>5</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="E20" s="92"/>
+      <c r="C20" s="128" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E20" s="128" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G20" s="88">
         <f t="shared" ref="G20:G24" si="1">IF((E20-C20)*24&lt;=4,(E20-C20)*24,(E20-C20)*24-1)</f>
         <v>0</v>
@@ -5569,8 +5593,12 @@
       <c r="B21" s="103">
         <v>6</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="E21" s="92"/>
+      <c r="C21" s="128" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E21" s="128" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G21" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5580,8 +5608,12 @@
       <c r="B22" s="103">
         <v>7</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="E22" s="92"/>
+      <c r="C22" s="128" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E22" s="128" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G22" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5591,8 +5623,12 @@
       <c r="B23" s="103">
         <v>8</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="E23" s="92"/>
+      <c r="C23" s="128" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E23" s="128" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G23" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5602,8 +5638,12 @@
       <c r="B24" s="103">
         <v>9</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="E24" s="92"/>
+      <c r="C24" s="128" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E24" s="128" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G24" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5633,8 +5673,12 @@
       <c r="B27" s="103">
         <v>12</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="E27" s="92"/>
+      <c r="C27" s="128" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E27" s="128" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G27" s="88">
         <f t="shared" ref="G27:G31" si="2">IF((E27-C27)*24&lt;=4,(E27-C27)*24,(E27-C27)*24-1)</f>
         <v>0</v>
@@ -5644,8 +5688,12 @@
       <c r="B28" s="103">
         <v>13</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="E28" s="92"/>
+      <c r="C28" s="128" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E28" s="128" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G28" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5655,8 +5703,12 @@
       <c r="B29" s="103">
         <v>14</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="E29" s="92"/>
+      <c r="C29" s="128" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E29" s="128" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G29" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -23333,8 +23385,12 @@
       <c r="B37" s="103">
         <v>22</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="E37" s="92"/>
+      <c r="C37" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E37" s="127" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G37" s="88">
         <f t="shared" ref="G37:G41" si="0">IF((E37-C37)*24&lt;=4,(E37-C37)*24,(E37-C37)*24-1)</f>
         <v>0</v>
@@ -23344,8 +23400,12 @@
       <c r="B38" s="103">
         <v>23</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="E38" s="92"/>
+      <c r="C38" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E38" s="127" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G38" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23355,8 +23415,12 @@
       <c r="B39" s="103">
         <v>24</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="E39" s="92"/>
+      <c r="C39" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E39" s="127" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G39" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23366,8 +23430,12 @@
       <c r="B40" s="103">
         <v>25</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="E40" s="92"/>
+      <c r="C40" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E40" s="127" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G40" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23377,8 +23445,12 @@
       <c r="B41" s="103">
         <v>26</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="E41" s="92"/>
+      <c r="C41" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E41" s="127" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G41" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23408,8 +23480,12 @@
       <c r="B44" s="103">
         <v>29</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="E44" s="92"/>
+      <c r="C44" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E44" s="127" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G44" s="88">
         <f t="shared" ref="G44:G46" si="1">IF((E44-C44)*24&lt;=4,(E44-C44)*24,(E44-C44)*24-1)</f>
         <v>0</v>
@@ -23419,8 +23495,12 @@
       <c r="B45" s="103">
         <v>30</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="E45" s="92"/>
+      <c r="C45" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E45" s="127" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G45" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -23430,8 +23510,12 @@
       <c r="B46" s="103">
         <v>31</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="E46" s="92"/>
+      <c r="C46" s="127" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E46" s="127" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G46" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -24471,6 +24555,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
